--- a/data/trans_orig/P43-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P43-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>140288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123290</v>
+        <v>123090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>158578</v>
+        <v>156879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4605927564836162</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4047860289074258</v>
+        <v>0.404127722980682</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5206439955669433</v>
+        <v>0.5150634804486862</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>164293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>146003</v>
+        <v>147702</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>181291</v>
+        <v>181491</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5394072435163838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4793560044330566</v>
+        <v>0.4849365195513137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5952139710925741</v>
+        <v>0.5958722770193179</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>115302</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97486</v>
+        <v>98508</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133449</v>
+        <v>133116</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3117224177358449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2635564484271881</v>
+        <v>0.2663191754208157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3607818524458116</v>
+        <v>0.359883263134789</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>254585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>236438</v>
+        <v>236771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>272401</v>
+        <v>271379</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6882775822641551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6392181475541885</v>
+        <v>0.6401167368652111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.736443551572812</v>
+        <v>0.7336808245791844</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>68501</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55940</v>
+        <v>55939</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81130</v>
+        <v>81496</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4106721476729882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3353687025717474</v>
+        <v>0.3353639820708788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4863825667029743</v>
+        <v>0.4885812072228934</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>98301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85672</v>
+        <v>85306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110862</v>
+        <v>110863</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5893278523270118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5136174332970258</v>
+        <v>0.5114187927771067</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6646312974282526</v>
+        <v>0.6646360179291215</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>237292</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>213900</v>
+        <v>211765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>264987</v>
+        <v>261077</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3334629486508123</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3005908993686212</v>
+        <v>0.2975892778736913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3723819640652199</v>
+        <v>0.3668868315600431</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>474308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>446613</v>
+        <v>450523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497700</v>
+        <v>499835</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6665370513491877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6276180359347803</v>
+        <v>0.6331131684399569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.699409100631379</v>
+        <v>0.7024107221263087</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>204614</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181523</v>
+        <v>180610</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>226682</v>
+        <v>227971</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3611430032141157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3203882803218867</v>
+        <v>0.3187766023037786</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4000946613784456</v>
+        <v>0.4023683732955524</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>361958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>339890</v>
+        <v>338601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>385049</v>
+        <v>385962</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6388569967858844</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5999053386215546</v>
+        <v>0.5976316267044476</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6796117196781134</v>
+        <v>0.6812233976962216</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>507445</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>474271</v>
+        <v>473824</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>544494</v>
+        <v>540744</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4095670014964609</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3827921094814387</v>
+        <v>0.3824306294000079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4394699959336046</v>
+        <v>0.4364430448089988</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>731534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>694485</v>
+        <v>698235</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>764708</v>
+        <v>765155</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5904329985035391</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5605300040663954</v>
+        <v>0.5635569551910012</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6172078905185613</v>
+        <v>0.6175693705999922</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>1273442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1218046</v>
+        <v>1217142</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1334308</v>
+        <v>1327619</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3791786408783454</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3626840013147</v>
+        <v>0.3624148085229529</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3973022005064982</v>
+        <v>0.3953104012530411</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>2084979</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2024113</v>
+        <v>2030802</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2140375</v>
+        <v>2141279</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6208213591216546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6026977994935018</v>
+        <v>0.6046895987469588</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6373159986853</v>
+        <v>0.6375851914770468</v>
       </c>
     </row>
     <row r="24">
@@ -1381,19 +1381,19 @@
         <v>135471</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>118438</v>
+        <v>117343</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>156045</v>
+        <v>153275</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4308120905048995</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3766472702601337</v>
+        <v>0.3731647393950339</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4962412431536292</v>
+        <v>0.4874334137394948</v>
       </c>
     </row>
     <row r="5">
@@ -1410,19 +1410,19 @@
         <v>178983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>158409</v>
+        <v>161179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>196016</v>
+        <v>197111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5691879094951005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5037587568463711</v>
+        <v>0.5125665862605051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6233527297398663</v>
+        <v>0.6268352606049661</v>
       </c>
     </row>
     <row r="6">
@@ -1472,19 +1472,19 @@
         <v>129727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112071</v>
+        <v>111753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150216</v>
+        <v>149476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3899758634532255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3368998320005563</v>
+        <v>0.3359414832433267</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4515659955205579</v>
+        <v>0.4493434440256752</v>
       </c>
     </row>
     <row r="8">
@@ -1501,19 +1501,19 @@
         <v>202928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>182439</v>
+        <v>183179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220584</v>
+        <v>220902</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6100241365467745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5484340044794421</v>
+        <v>0.5506565559743248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6631001679994436</v>
+        <v>0.6640585167566732</v>
       </c>
     </row>
     <row r="9">
@@ -1563,19 +1563,19 @@
         <v>134417</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116515</v>
+        <v>118535</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151256</v>
+        <v>151764</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5209120737911347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4515342127149497</v>
+        <v>0.4593641429469199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.586169751510508</v>
+        <v>0.5881385799297505</v>
       </c>
     </row>
     <row r="11">
@@ -1592,19 +1592,19 @@
         <v>123625</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106786</v>
+        <v>106278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141527</v>
+        <v>139507</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4790879262088654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.413830248489492</v>
+        <v>0.4118614200702496</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5484657872850504</v>
+        <v>0.5406358570530801</v>
       </c>
     </row>
     <row r="12">
@@ -1654,19 +1654,19 @@
         <v>302624</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>273086</v>
+        <v>272531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>330171</v>
+        <v>328340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3968551649121282</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3581192785479174</v>
+        <v>0.3573912451180408</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4329793374188847</v>
+        <v>0.4305787366881504</v>
       </c>
     </row>
     <row r="14">
@@ -1683,19 +1683,19 @@
         <v>459932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>432385</v>
+        <v>434216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489470</v>
+        <v>490025</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6031448350878718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5670206625811153</v>
+        <v>0.5694212633118495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6418807214520825</v>
+        <v>0.6426087548819591</v>
       </c>
     </row>
     <row r="15">
@@ -1745,19 +1745,19 @@
         <v>391154</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>363683</v>
+        <v>363296</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>418484</v>
+        <v>420032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5163522213397026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4800881897540468</v>
+        <v>0.479577343280399</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.552429432344326</v>
+        <v>0.5544735011595544</v>
       </c>
     </row>
     <row r="17">
@@ -1774,19 +1774,19 @@
         <v>366379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>339049</v>
+        <v>337501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>393850</v>
+        <v>394237</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4836477786602974</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4475705676556741</v>
+        <v>0.4455264988404458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5199118102459536</v>
+        <v>0.5204226567196011</v>
       </c>
     </row>
     <row r="18">
@@ -1836,19 +1836,19 @@
         <v>570784</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>536983</v>
+        <v>538956</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>602387</v>
+        <v>606255</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5169653128383254</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4863515969863927</v>
+        <v>0.4881380668740258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5455884755176353</v>
+        <v>0.5490917341416524</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>533321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>501718</v>
+        <v>497850</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>567122</v>
+        <v>565149</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4830346871616746</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4544115244823648</v>
+        <v>0.4509082658583476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5136484030136073</v>
+        <v>0.5118619331259743</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>1664177</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1608638</v>
+        <v>1600661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1727400</v>
+        <v>1724864</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4715258129198202</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4557895496118799</v>
+        <v>0.45352927562887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4894393781998035</v>
+        <v>0.4887208061385128</v>
       </c>
     </row>
     <row r="23">
@@ -1956,19 +1956,19 @@
         <v>1865167</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1801944</v>
+        <v>1804480</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1920706</v>
+        <v>1928683</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5284741870801798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5105606218001965</v>
+        <v>0.5112791938614872</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5442104503881202</v>
+        <v>0.5464707243711301</v>
       </c>
     </row>
     <row r="24">
@@ -2138,19 +2138,19 @@
         <v>170061</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>149699</v>
+        <v>150992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187649</v>
+        <v>187859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4937087130924207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4345968489456534</v>
+        <v>0.438348624581985</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5447692006057022</v>
+        <v>0.5453789100467058</v>
       </c>
     </row>
     <row r="5">
@@ -2167,19 +2167,19 @@
         <v>174395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156807</v>
+        <v>156597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>194757</v>
+        <v>193464</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5062912869075793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4552307993942979</v>
+        <v>0.4546210899532941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5654031510543467</v>
+        <v>0.5616513754180149</v>
       </c>
     </row>
     <row r="6">
@@ -2229,19 +2229,19 @@
         <v>172622</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151363</v>
+        <v>154710</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>190875</v>
+        <v>193369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4662055908571651</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4087888008425336</v>
+        <v>0.4178297673565444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5155006095881192</v>
+        <v>0.5222377451458086</v>
       </c>
     </row>
     <row r="8">
@@ -2258,19 +2258,19 @@
         <v>197649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>179396</v>
+        <v>176902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218908</v>
+        <v>215561</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5337944091428348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4844993904118809</v>
+        <v>0.4777622548541914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5912111991574664</v>
+        <v>0.5821702326434557</v>
       </c>
     </row>
     <row r="9">
@@ -2320,19 +2320,19 @@
         <v>92972</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80308</v>
+        <v>78223</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105773</v>
+        <v>106510</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5596560092237619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4834238781022488</v>
+        <v>0.4708731386056374</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6367125637963653</v>
+        <v>0.641150325613057</v>
       </c>
     </row>
     <row r="11">
@@ -2349,19 +2349,19 @@
         <v>73151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60350</v>
+        <v>59613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85815</v>
+        <v>87900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4403439907762381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3632874362036346</v>
+        <v>0.3588496743869432</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5165761218977509</v>
+        <v>0.5291268613943628</v>
       </c>
     </row>
     <row r="12">
@@ -2411,19 +2411,19 @@
         <v>338774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>309127</v>
+        <v>311843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>368095</v>
+        <v>366766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4116450622806277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3756210526945981</v>
+        <v>0.3789212414094103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4472726988096735</v>
+        <v>0.4456582184874321</v>
       </c>
     </row>
     <row r="14">
@@ -2440,19 +2440,19 @@
         <v>484202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>454881</v>
+        <v>456210</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>513849</v>
+        <v>511133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5883549377193723</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5527273011903265</v>
+        <v>0.554341781512568</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6243789473054019</v>
+        <v>0.6210787585905897</v>
       </c>
     </row>
     <row r="15">
@@ -2502,19 +2502,19 @@
         <v>417208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>390373</v>
+        <v>389706</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>445439</v>
+        <v>443818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5684486330874269</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5318859560044849</v>
+        <v>0.5309770875681885</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6069134911156845</v>
+        <v>0.6047042957903004</v>
       </c>
     </row>
     <row r="17">
@@ -2531,19 +2531,19 @@
         <v>316734</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>288503</v>
+        <v>290124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>343569</v>
+        <v>344236</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4315513669125732</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3930865088843155</v>
+        <v>0.3952957042096997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4681140439955152</v>
+        <v>0.4690229124318117</v>
       </c>
     </row>
     <row r="18">
@@ -2593,19 +2593,19 @@
         <v>559959</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>525600</v>
+        <v>522523</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>595173</v>
+        <v>591090</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5238272634023887</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4916849970886684</v>
+        <v>0.4888069602047022</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5567685600283907</v>
+        <v>0.5529494643849526</v>
       </c>
     </row>
     <row r="20">
@@ -2622,19 +2622,19 @@
         <v>509018</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>473804</v>
+        <v>477887</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>543377</v>
+        <v>546454</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4761727365976113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4432314399716092</v>
+        <v>0.4470505356150472</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5083150029113316</v>
+        <v>0.5111930397952977</v>
       </c>
     </row>
     <row r="21">
@@ -2684,19 +2684,19 @@
         <v>1751596</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1689214</v>
+        <v>1695803</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1811180</v>
+        <v>1818149</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4994936055527807</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4817044856915875</v>
+        <v>0.4835833452255902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5164846886310904</v>
+        <v>0.5184720538947999</v>
       </c>
     </row>
     <row r="23">
@@ -2713,19 +2713,19 @@
         <v>1755148</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1695564</v>
+        <v>1688595</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1817530</v>
+        <v>1810941</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5005063944472193</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4835153113689096</v>
+        <v>0.4815279461052003</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5182955143084125</v>
+        <v>0.51641665477441</v>
       </c>
     </row>
     <row r="24">
@@ -2895,19 +2895,19 @@
         <v>209228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>192125</v>
+        <v>191419</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224478</v>
+        <v>224596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6187757805319148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5681961878251913</v>
+        <v>0.5661059336799348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6638775942091556</v>
+        <v>0.6642258463456541</v>
       </c>
     </row>
     <row r="5">
@@ -2924,19 +2924,19 @@
         <v>128904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113654</v>
+        <v>113536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146007</v>
+        <v>146713</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3812242194680852</v>
+        <v>0.3812242194680851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3361224057908443</v>
+        <v>0.3357741536543462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4318038121748087</v>
+        <v>0.4338940663200653</v>
       </c>
     </row>
     <row r="6">
@@ -2986,19 +2986,19 @@
         <v>184166</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>168514</v>
+        <v>168895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>199001</v>
+        <v>199362</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5959080684881646</v>
+        <v>0.5959080684881645</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5452632035317386</v>
+        <v>0.5464966620084369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6439093561254688</v>
+        <v>0.6450781890943067</v>
       </c>
     </row>
     <row r="8">
@@ -3015,19 +3015,19 @@
         <v>124885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110050</v>
+        <v>109689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>140537</v>
+        <v>140156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4040919315118355</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.356090643874531</v>
+        <v>0.3549218109056932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4547367964682613</v>
+        <v>0.4535033379915632</v>
       </c>
     </row>
     <row r="9">
@@ -3077,19 +3077,19 @@
         <v>82020</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70836</v>
+        <v>71569</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91392</v>
+        <v>92608</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6241722186779188</v>
+        <v>0.6241722186779187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5390611393625147</v>
+        <v>0.5446429485539473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6954944675660735</v>
+        <v>0.7047478103319912</v>
       </c>
     </row>
     <row r="11">
@@ -3106,19 +3106,19 @@
         <v>49386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40014</v>
+        <v>38798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60570</v>
+        <v>59837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3758277813220813</v>
+        <v>0.3758277813220812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3045055324339265</v>
+        <v>0.2952521896680089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4609388606374852</v>
+        <v>0.4553570514460525</v>
       </c>
     </row>
     <row r="12">
@@ -3168,19 +3168,19 @@
         <v>300765</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>278860</v>
+        <v>280326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>323808</v>
+        <v>322860</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4825369648715372</v>
+        <v>0.4825369648715371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4473934565004971</v>
+        <v>0.4497447402908849</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.519506012598397</v>
+        <v>0.5179852473736475</v>
       </c>
     </row>
     <row r="14">
@@ -3197,19 +3197,19 @@
         <v>322535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>299492</v>
+        <v>300440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>344440</v>
+        <v>342974</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.517463035128463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4804939874016031</v>
+        <v>0.4820147526263526</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5526065434995029</v>
+        <v>0.5502552597091152</v>
       </c>
     </row>
     <row r="15">
@@ -3259,19 +3259,19 @@
         <v>349723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>326234</v>
+        <v>326373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>370295</v>
+        <v>370398</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5394723846540854</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5032391911243926</v>
+        <v>0.5034534882934276</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5712060496426868</v>
+        <v>0.5713648009118103</v>
       </c>
     </row>
     <row r="17">
@@ -3288,19 +3288,19 @@
         <v>298545</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>277973</v>
+        <v>277870</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>322034</v>
+        <v>321895</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4605276153459145</v>
+        <v>0.4605276153459146</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4287939503573133</v>
+        <v>0.4286351990881897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4967608088756077</v>
+        <v>0.4965465117065724</v>
       </c>
     </row>
     <row r="18">
@@ -3350,19 +3350,19 @@
         <v>308336</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>287186</v>
+        <v>282162</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>334244</v>
+        <v>334218</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4526646454844461</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4216155763957736</v>
+        <v>0.4142400199762555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4907003961589553</v>
+        <v>0.4906624513551318</v>
       </c>
     </row>
     <row r="20">
@@ -3379,19 +3379,19 @@
         <v>372821</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>346913</v>
+        <v>346939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>393971</v>
+        <v>398995</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5473353545155539</v>
+        <v>0.547335354515554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5092996038410448</v>
+        <v>0.5093375486448682</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5783844236042264</v>
+        <v>0.5857599800237445</v>
       </c>
     </row>
     <row r="21">
@@ -3441,19 +3441,19 @@
         <v>1434237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1380138</v>
+        <v>1387395</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1476151</v>
+        <v>1481134</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5251089813281312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5053018840890471</v>
+        <v>0.5079588320376716</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.540454554458352</v>
+        <v>0.5422792299357477</v>
       </c>
     </row>
     <row r="23">
@@ -3470,19 +3470,19 @@
         <v>1297076</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1255162</v>
+        <v>1250179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1351175</v>
+        <v>1343918</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4748910186718687</v>
+        <v>0.4748910186718688</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4595454455416478</v>
+        <v>0.4577207700642521</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.494698115910953</v>
+        <v>0.4920411679623284</v>
       </c>
     </row>
     <row r="24">
